--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -253,6 +253,57 @@
   </si>
   <si>
     <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim,NCFW</t>
+  </si>
+  <si>
+    <t>(Khách lẻ)</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hỏng module SIM800C</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
+  </si>
+  <si>
+    <t>Lỗi</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1090,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1277,13 +1328,23 @@
         <v>72</v>
       </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="P6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
       <c r="V6" s="69" t="s">
@@ -1315,16 +1376,30 @@
         <v>71</v>
       </c>
       <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
+      <c r="P7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
       <c r="V7" s="70"/>
@@ -1336,24 +1411,46 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="68" t="s">
+        <v>70</v>
+      </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="52">
+        <v>868926033948867</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="G8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="4"/>
+      <c r="P8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
       <c r="V8" s="70"/>
@@ -1365,23 +1462,39 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="52">
+        <v>864811036929656</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="G9" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="53"/>
       <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="56"/>
+      <c r="R9" s="51"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -1394,23 +1507,45 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="68" t="s">
+        <v>70</v>
+      </c>
       <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="52">
+        <v>864811037285280</v>
+      </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="G10" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="66" t="s">
+        <v>88</v>
+      </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="53"/>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="M10" s="53"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="51"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
@@ -1709,7 +1844,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,7 +1876,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,7 +1908,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2146,7 +2281,7 @@
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,7 +2313,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2377,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,7 +2708,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -732,6 +732,30 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,34 +777,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1121,43 +1121,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1202,58 +1202,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1278,24 +1278,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="69" t="s">
+      <c r="V6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="70"/>
+      <c r="V7" s="78"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="70"/>
+      <c r="V8" s="78"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1532,7 +1532,9 @@
       <c r="L10" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="53" t="s">
         <v>90</v>
@@ -1549,7 +1551,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="70"/>
+      <c r="V10" s="78"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1580,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="70"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1609,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="69" t="s">
+      <c r="V12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1638,7 +1640,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="70"/>
+      <c r="V13" s="78"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1669,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="70"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1698,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="70"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1727,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="79"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2959,10 +2961,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="72" t="s">
+      <c r="V56" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="72">
+      <c r="W56" s="80">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2991,8 +2993,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
+      <c r="V57" s="81"/>
+      <c r="W57" s="81"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3018,8 +3020,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
+      <c r="V58" s="82"/>
+      <c r="W58" s="82"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4306,6 +4308,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4316,16 +4328,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4368,43 +4370,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4449,58 +4451,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4525,24 +4527,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4568,7 +4570,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="69" t="s">
+      <c r="V6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4599,7 +4601,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="70"/>
+      <c r="V7" s="78"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4628,7 +4630,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="70"/>
+      <c r="V8" s="78"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4657,7 +4659,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4686,7 +4688,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="70"/>
+      <c r="V10" s="78"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4715,7 +4717,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="70"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4744,7 +4746,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="69" t="s">
+      <c r="V12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4775,7 +4777,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="70"/>
+      <c r="V13" s="78"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4804,7 +4806,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="70"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4833,7 +4835,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="70"/>
+      <c r="V15" s="78"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4862,7 +4864,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="79"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6096,10 +6098,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="72" t="s">
+      <c r="V56" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="72">
+      <c r="W56" s="80">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6128,8 +6130,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
+      <c r="V57" s="81"/>
+      <c r="W57" s="81"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6155,8 +6157,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
+      <c r="V58" s="82"/>
+      <c r="W58" s="82"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7443,6 +7445,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7453,16 +7465,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>BT</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
   </si>
 </sst>
 </file>
@@ -732,6 +735,36 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,40 +780,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1093,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1121,43 +1124,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1202,58 +1205,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1278,24 +1281,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1304,7 +1307,9 @@
       <c r="B6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -1332,7 +1337,9 @@
         <v>81</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="P6" s="53" t="s">
         <v>75</v>
       </c>
@@ -1347,7 +1354,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1361,7 +1368,9 @@
       <c r="B7" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="68" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -1387,7 +1396,9 @@
         <v>78</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="P7" s="53" t="s">
         <v>75</v>
       </c>
@@ -1402,7 +1413,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="78"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1414,7 +1425,9 @@
       <c r="B8" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="50">
+        <v>44139</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>46</v>
       </c>
@@ -1438,7 +1451,9 @@
         <v>81</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
+      <c r="O8" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="P8" s="53" t="s">
         <v>75</v>
       </c>
@@ -1453,7 +1468,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="78"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1465,7 +1480,9 @@
       <c r="B9" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="68" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
@@ -1498,7 +1515,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1510,7 +1527,9 @@
       <c r="B10" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="68" t="s">
+        <v>91</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>46</v>
       </c>
@@ -1551,7 +1570,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1580,7 +1599,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1609,7 +1628,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1640,7 +1659,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1669,7 +1688,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="78"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1698,7 +1717,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="78"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +1746,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2961,10 +2980,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="72">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2993,8 +3012,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3020,8 +3039,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4308,6 +4327,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4318,16 +4347,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4370,43 +4389,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4451,58 +4470,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4527,24 +4546,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4570,7 +4589,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4601,7 +4620,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="78"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4630,7 +4649,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="78"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4659,7 +4678,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4688,7 +4707,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4717,7 +4736,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4746,7 +4765,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4777,7 +4796,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4806,7 +4825,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="78"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4835,7 +4854,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="78"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4864,7 +4883,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6098,10 +6117,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="72">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6130,8 +6149,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6157,8 +6176,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7445,6 +7464,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7455,16 +7484,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -5,28 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="31" r:id="rId1"/>
+    <sheet name="TG102SE" sheetId="30" r:id="rId2"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102SE!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongHopThang!$S$1:$S$105</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -308,6 +311,39 @@
   <si>
     <t>09/11/2020</t>
   </si>
+  <si>
+    <t>19/11/2020</t>
+  </si>
+  <si>
+    <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 11 NĂM 2020</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PCPM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
 </sst>
 </file>
 
@@ -529,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -734,6 +770,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1092,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1124,43 +1166,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="A1" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1205,58 +1247,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1281,44 +1323,40 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C6" s="68"/>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="52">
-        <v>864811036929680</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>67</v>
-      </c>
+        <v>868926033991644</v>
+      </c>
+      <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
         <v>68</v>
       </c>
@@ -1326,35 +1364,33 @@
         <v>71</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="53"/>
+        <v>96</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>94</v>
+      </c>
       <c r="K6" s="53" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="53" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53" t="s">
-        <v>90</v>
-      </c>
+      <c r="O6" s="53"/>
       <c r="P6" s="53" t="s">
         <v>75</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="69" t="s">
+      <c r="U6" s="70"/>
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1366,16 +1402,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C7" s="68"/>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="52">
-        <v>869627031844913</v>
+      <c r="E7" s="57">
+        <v>866192037824677</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51" t="s">
@@ -1384,36 +1418,36 @@
       <c r="H7" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="J7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53" t="s">
-        <v>77</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="53"/>
       <c r="M7" s="53" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53" t="s">
-        <v>90</v>
-      </c>
+      <c r="O7" s="53"/>
       <c r="P7" s="53" t="s">
         <v>75</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="R7" s="56" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>76</v>
       </c>
       <c r="T7" s="28"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1422,53 +1456,27 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="50">
-        <v>44139</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="52">
-        <v>868926033948867</v>
-      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="51"/>
-      <c r="G8" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>74</v>
-      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
-      <c r="M8" s="53" t="s">
-        <v>81</v>
-      </c>
+      <c r="M8" s="53"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1477,45 +1485,27 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="52">
-        <v>864811036929656</v>
-      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
-        <v>83</v>
-      </c>
+      <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="66"/>
-      <c r="J9" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="56"/>
-      <c r="M9" s="53" t="s">
-        <v>85</v>
-      </c>
+      <c r="M9" s="53"/>
       <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="53" t="s">
-        <v>87</v>
-      </c>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1524,53 +1514,27 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="52">
-        <v>864811037285280</v>
-      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
-        <v>83</v>
-      </c>
+      <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="66" t="s">
-        <v>88</v>
-      </c>
+      <c r="I10" s="66"/>
       <c r="J10" s="53"/>
-      <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>38</v>
-      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="56" t="s">
-        <v>24</v>
-      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="56"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1597,9 +1561,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1626,9 +1590,9 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="69" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1657,9 +1621,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1686,9 +1650,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="11"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1715,9 +1679,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="64"/>
+      <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="70"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1744,9 +1708,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="64"/>
+      <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1773,9 +1737,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="64"/>
+      <c r="T17" s="70"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,7 +1764,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="64"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -1827,7 +1791,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="64"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -1858,14 +1822,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="64"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,7 +1854,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="64"/>
+      <c r="T21" s="70"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -1922,14 +1886,14 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="64"/>
+      <c r="T22" s="70"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1954,7 +1918,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="64"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -1981,7 +1945,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="64"/>
+      <c r="T24" s="70"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -2008,7 +1972,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="64"/>
+      <c r="T25" s="70"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -2039,7 +2003,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="64"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -2071,7 +2035,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="64"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -2103,7 +2067,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="64"/>
+      <c r="T28" s="70"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -2135,7 +2099,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="64"/>
+      <c r="T29" s="70"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -2167,7 +2131,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="64"/>
+      <c r="T30" s="70"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -2199,14 +2163,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="64"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,7 +2195,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="64"/>
+      <c r="T32" s="70"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -2263,7 +2227,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="64"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -2295,14 +2259,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="64"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,14 +2291,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="64"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,7 +2323,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="64"/>
+      <c r="T36" s="70"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -2391,14 +2355,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="64"/>
+      <c r="T37" s="70"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,7 +2387,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="64"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -2450,7 +2414,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="64"/>
+      <c r="T39" s="70"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -2477,7 +2441,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="64"/>
+      <c r="T40" s="70"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -2509,7 +2473,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="64"/>
+      <c r="T41" s="70"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -2541,7 +2505,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="64"/>
+      <c r="T42" s="70"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -2568,7 +2532,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="64"/>
+      <c r="T43" s="70"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -2729,7 +2693,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2770,10 +2734,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="63"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -2784,7 +2748,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="63"/>
+      <c r="R50" s="69"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -2980,10 +2944,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="72" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="72">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3012,8 +2976,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3039,8 +3003,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4354,6 +4318,3271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="22"/>
+    <col min="22" max="22" width="30.5703125" style="22" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+    </row>
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="52">
+        <v>864811036929680</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="28"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="52">
+        <v>869627031844913</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="28"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="50">
+        <v>44139</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="52">
+        <v>868926033948867</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="28"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="52">
+        <v>864811036929656</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="52">
+        <v>864811037285280</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="11">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="11">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="11">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="11">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="11">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="11">
+        <f>SUM(W26:W36)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="11">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="11">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>45</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>49</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="11">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="11">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>51</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="74">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>52</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>53</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>54</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="39"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="39"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>56</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="11">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>57</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="11">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>58</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="39"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>59</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="39"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>60</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="39"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>61</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="48"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="39"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>62</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="38">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="39"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>63</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="39"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>64</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="39"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>65</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="39"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>66</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="39"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>67</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="39"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>68</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="39"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>69</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="48"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="39"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>70</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="39"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>71</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="48"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="39"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>72</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="39"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>73</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="39"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>74</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="48"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="39"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>75</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="48"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="39"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>76</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="39"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>77</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="39"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>78</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="39"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>79</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="39"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>80</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>81</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="39"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>82</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="39"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>83</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="39"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>84</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="48"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>85</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="39"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>86</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="39"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>87</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="39"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>88</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="39"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>89</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="39"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>90</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="39"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>91</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="39"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>92</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="39"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>93</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="48"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="39"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>94</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="48"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="39"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>95</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="39"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>96</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="48"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="39"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>97</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="48"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="39"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>98</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="38"/>
+      <c r="W103" s="39"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>99</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="39"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>100</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="47"/>
+      <c r="U105" s="49"/>
+      <c r="V105" s="40"/>
+      <c r="W105" s="41"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S105"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
@@ -4389,43 +7618,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4470,58 +7699,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4546,24 +7775,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4589,7 +7818,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="69" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4620,7 +7849,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="70"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4649,7 +7878,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="70"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4678,7 +7907,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4707,7 +7936,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="70"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4736,7 +7965,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="70"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4765,7 +7994,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="69" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4796,7 +8025,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="70"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4825,7 +8054,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="70"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4854,7 +8083,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="70"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4883,7 +8112,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6117,10 +9346,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="72" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="72">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6149,8 +9378,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6176,8 +9405,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>21/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1352,9 @@
       <c r="B6" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>103</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1382,9 @@
         <v>100</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="P6" s="53" t="s">
         <v>75</v>
       </c>
@@ -1404,7 +1411,9 @@
       <c r="B7" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68" t="s">
+        <v>103</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -1432,7 +1441,9 @@
         <v>99</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="P7" s="53" t="s">
         <v>75</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -5,31 +5,37 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="31" r:id="rId1"/>
-    <sheet name="TG102SE" sheetId="30" r:id="rId2"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId3"/>
+    <sheet name="TG102E" sheetId="33" r:id="rId1"/>
+    <sheet name="TG102LE" sheetId="32" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="31" r:id="rId3"/>
+    <sheet name="TG102SE" sheetId="30" r:id="rId4"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongHopThang!$S$1:$S$105</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102SE!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -347,6 +353,54 @@
   <si>
     <t>21/11/2020</t>
   </si>
+  <si>
+    <t>23/11/2020</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi gsm</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khởi động</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180615</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock : 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Lock : 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Nạp lại FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị chập module MC60</t>
+  </si>
+  <si>
+    <t>Thay module MC60</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>ID mới : 862549041579122</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>24/11/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -568,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -779,6 +833,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1241,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="82" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -1169,46 +1259,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="A1" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -1233,7 +1323,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1250,58 +1340,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="90" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1323,81 +1413,81 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>103</v>
+      <c r="B6" s="50">
+        <v>44149</v>
+      </c>
+      <c r="C6" s="50">
+        <v>44158</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="52">
-        <v>868926033991644</v>
+        <v>860906041136075</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>96</v>
+      <c r="H6" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>116</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="56"/>
+        <v>114</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="53" t="s">
+        <v>118</v>
+      </c>
       <c r="M6" s="53" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
         <v>90</v>
       </c>
       <c r="P6" s="53" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="71" t="s">
+      <c r="U6" s="72"/>
+      <c r="V6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1408,57 +1498,27 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="57">
-        <v>866192037824677</v>
-      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
-        <v>99</v>
-      </c>
+      <c r="M7" s="53"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1467,14 +1527,14 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="50"/>
       <c r="D8" s="51"/>
       <c r="E8" s="52"/>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
@@ -1486,8 +1546,8 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1496,17 +1556,17 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="51"/>
       <c r="E9" s="52"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="66"/>
       <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="53"/>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
@@ -1514,9 +1574,9 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1525,8 +1585,8 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
       <c r="F10" s="51"/>
@@ -1543,9 +1603,9 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1561,10 +1621,10 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="53"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="53"/>
       <c r="M11" s="53"/>
       <c r="N11" s="55"/>
       <c r="O11" s="53"/>
@@ -1572,9 +1632,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1586,24 +1646,24 @@
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
       <c r="D12" s="51"/>
-      <c r="E12" s="57"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="53"/>
-      <c r="N12" s="3"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="56"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="71" t="s">
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1620,21 +1680,21 @@
       <c r="E13" s="52"/>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="55"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="53"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="84"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1650,20 +1710,20 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="53"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="56"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="84"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1675,24 +1735,24 @@
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="55"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="53"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="70"/>
+      <c r="T15" s="72"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="84"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1707,21 +1767,21 @@
       <c r="E16" s="52"/>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="56"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="70"/>
+      <c r="T16" s="72"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1737,20 +1797,20 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="55"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="56"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="70"/>
+      <c r="T17" s="72"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="70"/>
+      <c r="V17" s="72"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,18 +1824,18 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="15"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="55"/>
       <c r="O18" s="53"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="56"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="70"/>
+      <c r="T18" s="72"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -1784,25 +1844,25 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="56"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="70"/>
+      <c r="T19" s="72"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -1815,25 +1875,25 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="70"/>
+      <c r="T20" s="72"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -1847,25 +1907,25 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="70"/>
+      <c r="T21" s="72"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -1879,25 +1939,25 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="70"/>
+      <c r="T22" s="72"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -1911,25 +1971,25 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="70"/>
+      <c r="T23" s="72"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -1938,25 +1998,25 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="70"/>
+      <c r="T24" s="72"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -1965,25 +2025,25 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="51"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="70"/>
+      <c r="T25" s="72"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -1996,25 +2056,25 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="51"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="70"/>
+      <c r="T26" s="72"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -2028,57 +2088,57 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="51"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="70"/>
+      <c r="T27" s="72"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="70"/>
+      <c r="T28" s="72"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -2099,7 +2159,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2110,7 +2170,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="70"/>
+      <c r="T29" s="72"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -2131,7 +2191,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2142,7 +2202,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="70"/>
+      <c r="T30" s="72"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -2163,7 +2223,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2174,14 +2234,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="70"/>
+      <c r="T31" s="72"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2195,7 +2255,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2206,7 +2266,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="70"/>
+      <c r="T32" s="72"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -2227,7 +2287,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="76"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2238,7 +2298,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="70"/>
+      <c r="T33" s="72"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -2259,7 +2319,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="76"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2270,7 +2330,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="70"/>
+      <c r="T34" s="72"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -2291,7 +2351,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="76"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2302,14 +2362,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="70"/>
+      <c r="T35" s="72"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2323,7 +2383,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="76"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2334,7 +2394,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="70"/>
+      <c r="T36" s="72"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -2355,7 +2415,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="76"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2366,14 +2426,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="70"/>
+      <c r="T37" s="72"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2387,7 +2447,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="76"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2398,7 +2458,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="70"/>
+      <c r="T38" s="72"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -2414,7 +2474,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="76"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2425,7 +2485,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="70"/>
+      <c r="T39" s="72"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -2441,7 +2501,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="76"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2452,7 +2512,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="70"/>
+      <c r="T40" s="72"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -2473,7 +2533,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="76"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2484,7 +2544,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="70"/>
+      <c r="T41" s="72"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -2505,7 +2565,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="76"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2516,7 +2576,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="70"/>
+      <c r="T42" s="72"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -2532,7 +2592,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="76"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2543,7 +2603,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="70"/>
+      <c r="T43" s="72"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -2559,7 +2619,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="76"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2590,7 +2650,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="76"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2608,7 +2668,7 @@
       </c>
       <c r="W45" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,7 +2682,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="76"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2654,7 +2714,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="76"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2686,7 +2746,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="76"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2704,7 +2764,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,7 +2778,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="76"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2745,12 +2805,12 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="69"/>
+      <c r="D50" s="71"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="79"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -2759,7 +2819,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="69"/>
+      <c r="R50" s="71"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -2782,7 +2842,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="76"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2814,7 +2874,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -2846,7 +2906,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="80"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -2878,7 +2938,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="81"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -2910,7 +2970,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="80"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -2942,7 +3002,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="80"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -2955,10 +3015,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="86">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2974,7 +3034,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="80"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -2987,8 +3047,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3001,7 +3061,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="80"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -3014,8 +3074,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3028,7 +3088,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="80"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -3055,7 +3115,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="I60" s="80"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -3082,7 +3142,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="80"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -3114,7 +3174,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="80"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -3146,7 +3206,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="80"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -3173,7 +3233,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="I64" s="80"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -3200,7 +3260,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="80"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -3227,7 +3287,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="I66" s="80"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -3254,7 +3314,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="I67" s="80"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -3284,7 +3344,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="80"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -3311,7 +3371,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="I69" s="80"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -3338,7 +3398,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="80"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -3365,7 +3425,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="80"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -3392,7 +3452,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="80"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -3419,7 +3479,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="80"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -3446,7 +3506,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="80"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -3473,7 +3533,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="80"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -3500,7 +3560,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="80"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -3527,7 +3587,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="80"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -3554,7 +3614,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="80"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -3581,7 +3641,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="80"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -3608,7 +3668,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="80"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -3635,7 +3695,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="80"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -3662,7 +3722,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="I82" s="80"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -3689,7 +3749,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="I83" s="80"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -3716,7 +3776,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="80"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -3743,7 +3803,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="I85" s="80"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -3770,7 +3830,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="I86" s="80"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -3797,7 +3857,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="I87" s="80"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -3824,7 +3884,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="I88" s="80"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -3851,7 +3911,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="I89" s="80"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -3878,7 +3938,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="80"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -3905,7 +3965,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="80"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -3932,7 +3992,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="80"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -3959,7 +4019,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="80"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -3986,7 +4046,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="80"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -4013,7 +4073,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="80"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -4040,7 +4100,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="80"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -4067,7 +4127,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="80"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -4094,7 +4154,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="80"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -4121,7 +4181,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="80"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -4148,7 +4208,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="80"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -4175,7 +4235,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="80"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -4202,7 +4262,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="80"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -4229,7 +4289,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="I103" s="80"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -4256,7 +4316,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="I104" s="80"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -4283,7 +4343,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
+      <c r="I105" s="80"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -4332,8 +4392,3203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="82" customWidth="1"/>
+    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="22"/>
+    <col min="22" max="22" width="30.5703125" style="22" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="96"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="90"/>
+      <c r="K5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+    </row>
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="52">
+        <v>868183033826558</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="28"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="57">
+        <v>868183033807509</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="28"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="11">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="11">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="11">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="11">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="11">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="11">
+        <f>SUM(W26:W36)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="11">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="11">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>45</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>49</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="11">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="11">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>51</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="86">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>52</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>53</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>54</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="39"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="39"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>56</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="11">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>57</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="11">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>58</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="39"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>59</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="39"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>60</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="39"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>61</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="48"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="39"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>62</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="38">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="39"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>63</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="39"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>64</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="39"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>65</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="39"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>66</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="39"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>67</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="39"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>68</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="39"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>69</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="48"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="39"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>70</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="39"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>71</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="48"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="39"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>72</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="80"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="39"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>73</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="39"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>74</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="48"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="39"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>75</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="48"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="39"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>76</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="39"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>77</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="80"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="39"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>78</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="39"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>79</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="39"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>80</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>81</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="80"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="39"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>82</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="39"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>83</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="39"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>84</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="48"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>85</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="39"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>86</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="80"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="39"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>87</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="80"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="39"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>88</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="39"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>89</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="80"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="39"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>90</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="80"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="39"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>91</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="80"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="39"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>92</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="80"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="39"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>93</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="80"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="48"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="39"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>94</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="80"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="48"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="39"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>95</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="80"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="39"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>96</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="80"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="48"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="39"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>97</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="80"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="48"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="39"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>98</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="80"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="38"/>
+      <c r="W103" s="39"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>99</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="80"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="39"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>100</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="80"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="47"/>
+      <c r="U105" s="49"/>
+      <c r="V105" s="40"/>
+      <c r="W105" s="41"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S105"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4364,43 +7619,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4445,58 +7700,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="90" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4521,44 +7776,42 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="52">
-        <v>864811036929680</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>67</v>
-      </c>
+        <v>868926033991644</v>
+      </c>
+      <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
         <v>68</v>
       </c>
@@ -4566,15 +7819,17 @@
         <v>71</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="53"/>
+        <v>96</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>94</v>
+      </c>
       <c r="K6" s="53" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="53" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
@@ -4584,17 +7839,15 @@
         <v>75</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="71" t="s">
+      <c r="U6" s="70"/>
+      <c r="V6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4606,16 +7859,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="52">
-        <v>869627031844913</v>
+      <c r="E7" s="57">
+        <v>866192037824677</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51" t="s">
@@ -4624,16 +7877,18 @@
       <c r="H7" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="J7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53" t="s">
-        <v>77</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="53"/>
       <c r="M7" s="53" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53" t="s">
@@ -4643,17 +7898,17 @@
         <v>75</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="R7" s="56" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>76</v>
       </c>
       <c r="T7" s="28"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="72"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4662,53 +7917,27 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="50">
-        <v>44139</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="52">
-        <v>868926033948867</v>
-      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="51"/>
-      <c r="G8" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>74</v>
-      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
-      <c r="M8" s="53" t="s">
-        <v>81</v>
-      </c>
+      <c r="M8" s="53"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="72"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4717,45 +7946,27 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="52">
-        <v>864811036929656</v>
-      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
-        <v>83</v>
-      </c>
+      <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="66"/>
-      <c r="J9" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="56"/>
-      <c r="M9" s="53" t="s">
-        <v>85</v>
-      </c>
+      <c r="M9" s="53"/>
       <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="53" t="s">
-        <v>87</v>
-      </c>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="72"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4764,53 +7975,27 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="52">
-        <v>864811037285280</v>
-      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
-        <v>83</v>
-      </c>
+      <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="66" t="s">
-        <v>88</v>
-      </c>
+      <c r="I10" s="66"/>
       <c r="J10" s="53"/>
-      <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>38</v>
-      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="56" t="s">
-        <v>24</v>
-      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="56"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="72"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4837,9 +8022,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="72"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4866,9 +8051,9 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="71" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4897,9 +8082,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="72"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="84"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4926,9 +8111,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="11"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="72"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="84"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4955,9 +8140,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="64"/>
+      <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="84"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4984,9 +8169,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="64"/>
+      <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5013,9 +8198,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="64"/>
+      <c r="T17" s="70"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5040,7 +8225,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="64"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -5067,7 +8252,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="64"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -5098,14 +8283,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="64"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5130,7 +8315,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="64"/>
+      <c r="T21" s="70"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -5162,14 +8347,14 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="64"/>
+      <c r="T22" s="70"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5194,7 +8379,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="64"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -5221,7 +8406,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="64"/>
+      <c r="T24" s="70"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -5248,7 +8433,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="64"/>
+      <c r="T25" s="70"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -5279,7 +8464,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="64"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -5311,7 +8496,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="64"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -5343,7 +8528,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="64"/>
+      <c r="T28" s="70"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -5375,7 +8560,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="64"/>
+      <c r="T29" s="70"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -5407,7 +8592,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="64"/>
+      <c r="T30" s="70"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -5439,14 +8624,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="64"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5471,7 +8656,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="64"/>
+      <c r="T32" s="70"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -5503,7 +8688,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="64"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -5535,14 +8720,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="64"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5567,14 +8752,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="64"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5599,7 +8784,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="64"/>
+      <c r="T36" s="70"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -5631,14 +8816,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="64"/>
+      <c r="T37" s="70"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,7 +8848,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="64"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -5690,7 +8875,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="64"/>
+      <c r="T39" s="70"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -5717,7 +8902,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="64"/>
+      <c r="T40" s="70"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -5749,7 +8934,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="64"/>
+      <c r="T41" s="70"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -5781,7 +8966,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="64"/>
+      <c r="T42" s="70"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -5808,7 +8993,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="64"/>
+      <c r="T43" s="70"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -5969,7 +9154,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6010,10 +9195,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="63"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -6024,7 +9209,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="63"/>
+      <c r="R50" s="69"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -6220,10 +9405,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="86">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6252,8 +9437,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6279,8 +9464,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7593,7 +10778,3272 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="22"/>
+    <col min="22" max="22" width="30.5703125" style="22" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="96"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="90"/>
+      <c r="K5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+    </row>
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="52">
+        <v>864811036929680</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="28"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="52">
+        <v>869627031844913</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="28"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="50">
+        <v>44139</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="52">
+        <v>868926033948867</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="28"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="52">
+        <v>864811036929656</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="52">
+        <v>864811037285280</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="11">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="11">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="11">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="11">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="11">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="11">
+        <f>SUM(W26:W36)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="11">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="11">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>45</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>49</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="11">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="11">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>51</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="86">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>52</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>53</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>54</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="39"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="39"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>56</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="11">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>57</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="11">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>58</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="39"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>59</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="39"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>60</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="39"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>61</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="48"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="39"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>62</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="38">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="39"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>63</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="39"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>64</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="39"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>65</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="39"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>66</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="39"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>67</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="39"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>68</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="39"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>69</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="48"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="39"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>70</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="39"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>71</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="48"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="39"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>72</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="39"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>73</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="39"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>74</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="48"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="39"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>75</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="48"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="39"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>76</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="39"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>77</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="39"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>78</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="39"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>79</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="39"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>80</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>81</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="39"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>82</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="39"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>83</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="39"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>84</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="48"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>85</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="39"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>86</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="39"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>87</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="39"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>88</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="39"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>89</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="39"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>90</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="39"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>91</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="39"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>92</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="39"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>93</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="48"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="39"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>94</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="48"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="39"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>95</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="39"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>96</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="48"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="39"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>97</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="48"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="39"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>98</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="38"/>
+      <c r="W103" s="39"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>99</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="39"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>100</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="47"/>
+      <c r="U105" s="49"/>
+      <c r="V105" s="40"/>
+      <c r="W105" s="41"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S105"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
@@ -7629,43 +14079,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7710,58 +14160,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="90" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7786,24 +14236,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7829,7 +14279,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7860,7 +14310,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7889,7 +14339,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7918,7 +14368,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7947,7 +14397,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7976,7 +14426,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8005,7 +14455,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8036,7 +14486,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="84"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8065,7 +14515,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="84"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8094,7 +14544,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="84"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8123,7 +14573,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9357,10 +15807,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="86">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9389,8 +15839,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9416,8 +15866,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="33" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>24/11/2020</t>
+  </si>
+  <si>
+    <t>26/11/2020</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị dự phòng, Id: 866050031761339</t>
   </si>
 </sst>
 </file>
@@ -870,6 +882,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -891,34 +927,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,43 +1271,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -1340,58 +1352,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1416,24 +1428,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1487,7 +1499,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="72"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1518,7 +1530,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="72"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1547,7 +1559,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="72"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1588,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1605,7 +1617,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1634,7 +1646,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1675,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1694,7 +1706,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1723,7 +1735,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1764,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="72"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1793,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="72"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3015,10 +3027,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3047,8 +3059,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3074,8 +3086,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4362,6 +4374,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4372,16 +4394,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4392,7 +4404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4424,43 +4436,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -4505,58 +4517,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4581,24 +4593,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4654,7 +4666,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="72"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4713,7 +4725,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="72"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4742,7 +4754,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="72"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4771,7 +4783,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4800,7 +4812,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4829,7 +4841,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4858,7 +4870,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4889,7 +4901,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4918,7 +4930,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4947,7 +4959,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="72"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4976,7 +4988,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="72"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6210,10 +6222,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6242,8 +6254,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6269,8 +6281,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7557,6 +7569,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7567,16 +7589,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7587,8 +7599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7619,43 +7631,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7700,58 +7712,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7776,24 +7788,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7847,7 +7859,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7908,7 +7920,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7917,27 +7929,57 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="68" t="s">
+        <v>120</v>
+      </c>
       <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="52">
+        <v>866050031811670</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="G8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>122</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7946,27 +7988,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="68" t="s">
+        <v>120</v>
+      </c>
       <c r="C9" s="68"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="D9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="52">
+        <v>868926033923811</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="G9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>122</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7995,7 +8065,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8024,7 +8094,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8053,7 +8123,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8084,7 +8154,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8113,7 +8183,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8142,7 +8212,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8171,7 +8241,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8354,7 +8424,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8759,7 +8829,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8823,7 +8893,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9154,7 +9224,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9405,10 +9475,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9437,8 +9507,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9464,8 +9534,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10752,6 +10822,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10762,16 +10842,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10814,43 +10884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10895,58 +10965,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10971,24 +11041,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11044,7 +11114,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11103,7 +11173,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11158,7 +11228,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11205,7 +11275,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11260,7 +11330,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11289,7 +11359,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11318,7 +11388,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11349,7 +11419,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11378,7 +11448,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11407,7 +11477,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11436,7 +11506,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12670,10 +12740,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12702,8 +12772,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12729,8 +12799,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14017,6 +14087,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14027,16 +14107,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14079,43 +14149,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -14160,58 +14230,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -14236,24 +14306,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -14279,7 +14349,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14310,7 +14380,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14339,7 +14409,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14368,7 +14438,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14397,7 +14467,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14426,7 +14496,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14455,7 +14525,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14486,7 +14556,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14515,7 +14585,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14544,7 +14614,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14573,7 +14643,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15807,10 +15877,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15839,8 +15909,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15866,8 +15936,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -17154,6 +17224,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -17164,16 +17244,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="33" r:id="rId1"/>
@@ -870,6 +870,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -891,34 +915,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1259,43 +1259,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -1340,58 +1340,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1416,24 +1416,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1487,7 +1487,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="72"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1518,7 +1518,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="72"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="72"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1694,7 +1694,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="72"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="72"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3015,10 +3015,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3047,8 +3047,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3074,8 +3074,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4362,6 +4362,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4372,16 +4382,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4392,7 +4392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4424,43 +4424,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -4505,58 +4505,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4581,24 +4581,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="72"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="72"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="72"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4889,7 +4889,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="72"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="72"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6210,10 +6210,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6242,8 +6242,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6269,8 +6269,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7557,6 +7557,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7567,16 +7577,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7619,43 +7619,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7700,58 +7700,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7776,24 +7776,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7847,7 +7847,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7995,7 +7995,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8084,7 +8084,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9405,10 +9405,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9437,8 +9437,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9464,8 +9464,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10752,6 +10752,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10762,16 +10772,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10814,43 +10814,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10895,58 +10895,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10971,24 +10971,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11205,7 +11205,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11260,7 +11260,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11318,7 +11318,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11349,7 +11349,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11407,7 +11407,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11436,7 +11436,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12670,10 +12670,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12702,8 +12702,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12729,8 +12729,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14017,6 +14017,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14027,16 +14037,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14079,43 +14079,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -14160,58 +14160,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="98" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -14236,24 +14236,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -14279,7 +14279,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="83" t="s">
+      <c r="V6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14310,7 +14310,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="84"/>
+      <c r="V7" s="92"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="84"/>
+      <c r="V8" s="92"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14368,7 +14368,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="84"/>
+      <c r="V9" s="92"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14397,7 +14397,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="84"/>
+      <c r="V10" s="92"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14426,7 +14426,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="84"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14455,7 +14455,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="83" t="s">
+      <c r="V12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14486,7 +14486,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="84"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14515,7 +14515,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="84"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14544,7 +14544,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="84"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14573,7 +14573,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="85"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15807,10 +15807,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="86" t="s">
+      <c r="V56" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="86">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15839,8 +15839,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="87"/>
-      <c r="W57" s="87"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15866,8 +15866,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -17154,6 +17154,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -17164,16 +17174,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -882,30 +882,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,10 +903,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1271,43 +1271,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -1352,58 +1352,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="88" t="s">
+      <c r="W4" s="90" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1428,24 +1428,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1499,7 +1499,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="72"/>
-      <c r="V6" s="91" t="s">
+      <c r="V6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1530,7 +1530,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="72"/>
-      <c r="V7" s="92"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="72"/>
-      <c r="V8" s="92"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
-      <c r="V9" s="92"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
-      <c r="V10" s="92"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
-      <c r="V11" s="92"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="91" t="s">
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1706,7 +1706,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="92"/>
+      <c r="V13" s="84"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="92"/>
+      <c r="V14" s="84"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="72"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="84"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="72"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3027,10 +3027,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="86">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3059,8 +3059,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3086,8 +3086,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4374,6 +4374,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4384,16 +4394,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4436,43 +4436,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -4517,58 +4517,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="88" t="s">
+      <c r="W4" s="90" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4593,24 +4593,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="72"/>
-      <c r="V6" s="91" t="s">
+      <c r="V6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="72"/>
-      <c r="V7" s="92"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="72"/>
-      <c r="V8" s="92"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
-      <c r="V9" s="92"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
-      <c r="V10" s="92"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
-      <c r="V11" s="92"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="91" t="s">
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4901,7 +4901,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="92"/>
+      <c r="V13" s="84"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="92"/>
+      <c r="V14" s="84"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="72"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="84"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="72"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6222,10 +6222,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="86">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6254,8 +6254,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6281,8 +6281,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7569,6 +7569,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7579,16 +7589,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7631,43 +7631,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7712,58 +7712,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="88" t="s">
+      <c r="W4" s="90" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7788,24 +7788,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7859,7 +7859,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="91" t="s">
+      <c r="V6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="92"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="92"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="92"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="92"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="92"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8123,7 +8123,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="91" t="s">
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8154,7 +8154,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="92"/>
+      <c r="V13" s="84"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="92"/>
+      <c r="V14" s="84"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8212,7 +8212,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="84"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8241,7 +8241,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9475,10 +9475,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="86">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9507,8 +9507,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9534,8 +9534,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10822,6 +10822,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10832,16 +10842,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10884,43 +10884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10965,58 +10965,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="88" t="s">
+      <c r="W4" s="90" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -11041,24 +11041,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="91" t="s">
+      <c r="V6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="92"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="92"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="92"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11330,7 +11330,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="92"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11359,7 +11359,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="92"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11388,7 +11388,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="91" t="s">
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11419,7 +11419,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="92"/>
+      <c r="V13" s="84"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11448,7 +11448,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="92"/>
+      <c r="V14" s="84"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11477,7 +11477,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="84"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11506,7 +11506,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12740,10 +12740,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="86">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12772,8 +12772,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12799,8 +12799,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14087,6 +14087,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14097,16 +14107,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14149,43 +14149,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -14230,58 +14230,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="88" t="s">
+      <c r="W4" s="90" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -14306,24 +14306,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -14349,7 +14349,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="91" t="s">
+      <c r="V6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14380,7 +14380,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="92"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14409,7 +14409,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="92"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14438,7 +14438,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="92"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14467,7 +14467,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="92"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14496,7 +14496,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="92"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14525,7 +14525,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="91" t="s">
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14556,7 +14556,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="92"/>
+      <c r="V13" s="84"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14585,7 +14585,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="92"/>
+      <c r="V14" s="84"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14614,7 +14614,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="84"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14643,7 +14643,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="85"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15877,10 +15877,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="86">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15909,8 +15909,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15936,8 +15936,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -17224,6 +17224,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -17234,16 +17244,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -5,37 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="33" r:id="rId1"/>
     <sheet name="TG102LE" sheetId="32" r:id="rId2"/>
     <sheet name="TG102V" sheetId="31" r:id="rId3"/>
-    <sheet name="TG102SE" sheetId="30" r:id="rId4"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId5"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$1:$S$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102SE!$S$1:$S$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongHopThang!$S$1:$S$105</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="4">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -300,9 +297,6 @@
     <t>Không sửa</t>
   </si>
   <si>
-    <t>Lỗi</t>
-  </si>
-  <si>
     <t>Danh</t>
   </si>
   <si>
@@ -412,6 +406,9 @@
   </si>
   <si>
     <t>Thiết bị dự phòng, Id: 866050031761339</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,12 +819,6 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,30 +873,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,10 +894,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1239,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1244,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="82" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="80" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -1271,46 +1262,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="73"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -1335,7 +1326,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="74"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1352,7 +1343,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="88" t="s">
@@ -1372,16 +1363,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="88" t="s">
@@ -1390,7 +1381,7 @@
       <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -1403,7 +1394,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1416,7 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="88"/>
@@ -1435,13 +1426,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="88"/>
       <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="88"/>
@@ -1468,27 +1459,27 @@
         <v>68</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="66" t="s">
         <v>116</v>
       </c>
+      <c r="I6" s="64" t="s">
+        <v>115</v>
+      </c>
       <c r="J6" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
@@ -1498,8 +1489,8 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="91" t="s">
+      <c r="U6" s="70"/>
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1517,7 +1508,7 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
-      <c r="I7" s="66"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="53"/>
       <c r="K7" s="1"/>
       <c r="L7" s="53"/>
@@ -1529,8 +1520,8 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="92"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1546,7 +1537,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="66"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
@@ -1558,8 +1549,8 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="92"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1566,7 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="59"/>
-      <c r="I9" s="66"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="53"/>
       <c r="K9" s="56"/>
       <c r="L9" s="53"/>
@@ -1586,9 +1577,9 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="92"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1604,7 +1595,7 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="66"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="53"/>
       <c r="K10" s="1"/>
       <c r="L10" s="53"/>
@@ -1615,9 +1606,9 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="92"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1633,7 +1624,7 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="66"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="53"/>
       <c r="K11" s="56"/>
       <c r="L11" s="53"/>
@@ -1644,9 +1635,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="92"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1662,7 +1653,7 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="59"/>
-      <c r="I12" s="66"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="53"/>
       <c r="K12" s="56"/>
       <c r="L12" s="53"/>
@@ -1673,9 +1664,9 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="51"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="91" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1693,7 +1684,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="66"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="53"/>
       <c r="K13" s="56"/>
       <c r="L13" s="53"/>
@@ -1704,9 +1695,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="51"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="92"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1722,7 +1713,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="53"/>
       <c r="K14" s="1"/>
       <c r="L14" s="53"/>
@@ -1733,9 +1724,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="92"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1751,7 +1742,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="66"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="53"/>
       <c r="K15" s="56"/>
       <c r="L15" s="53"/>
@@ -1762,9 +1753,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="51"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="72"/>
+      <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +1771,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="66"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="53"/>
       <c r="K16" s="1"/>
       <c r="L16" s="53"/>
@@ -1791,9 +1782,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="72"/>
+      <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1809,7 +1800,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="66"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="53"/>
       <c r="K17" s="56"/>
       <c r="L17" s="53"/>
@@ -1820,9 +1811,9 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="56"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="72"/>
+      <c r="T17" s="70"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="72"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,7 +1827,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="66"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="53"/>
       <c r="K18" s="56"/>
       <c r="L18" s="53"/>
@@ -1847,7 +1838,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="56"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="72"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -1863,7 +1854,7 @@
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="66"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="53"/>
       <c r="K19" s="1"/>
       <c r="L19" s="53"/>
@@ -1874,7 +1865,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="56"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="72"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -1894,7 +1885,7 @@
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="66"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="53"/>
       <c r="K20" s="54"/>
       <c r="L20" s="1"/>
@@ -1905,7 +1896,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="72"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -1926,7 +1917,7 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="67"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="1"/>
       <c r="K21" s="53"/>
       <c r="L21" s="1"/>
@@ -1937,7 +1928,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="72"/>
+      <c r="T21" s="70"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -1958,7 +1949,7 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="67"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1969,7 +1960,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="72"/>
+      <c r="T22" s="70"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -1990,7 +1981,7 @@
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2001,7 +1992,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="72"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -2017,7 +2008,7 @@
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
-      <c r="I24" s="66"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2028,7 +2019,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="72"/>
+      <c r="T24" s="70"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -2044,7 +2035,7 @@
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
       <c r="H25" s="59"/>
-      <c r="I25" s="66"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
@@ -2055,7 +2046,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="51"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="72"/>
+      <c r="T25" s="70"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -2075,7 +2066,7 @@
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
       <c r="H26" s="59"/>
-      <c r="I26" s="66"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="53"/>
       <c r="K26" s="1"/>
       <c r="L26" s="53"/>
@@ -2086,7 +2077,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="51"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="72"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -2104,10 +2095,10 @@
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
-      <c r="F27" s="65"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
-      <c r="I27" s="66"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="53"/>
       <c r="K27" s="56"/>
       <c r="L27" s="53"/>
@@ -2118,7 +2109,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="51"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="72"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -2139,7 +2130,7 @@
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="66"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2150,7 +2141,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="72"/>
+      <c r="T28" s="70"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -2171,7 +2162,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="76"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2182,7 +2173,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="72"/>
+      <c r="T29" s="70"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -2203,7 +2194,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2214,7 +2205,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="72"/>
+      <c r="T30" s="70"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -2235,7 +2226,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="76"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2246,7 +2237,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="72"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -2267,7 +2258,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2278,7 +2269,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="72"/>
+      <c r="T32" s="70"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -2299,7 +2290,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="76"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2310,7 +2301,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="72"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -2331,7 +2322,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="76"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2342,7 +2333,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="72"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -2363,7 +2354,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="76"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2374,7 +2365,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="72"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -2395,7 +2386,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="76"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2406,7 +2397,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="72"/>
+      <c r="T36" s="70"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -2427,7 +2418,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2438,7 +2429,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="72"/>
+      <c r="T37" s="70"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
@@ -2459,7 +2450,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="76"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2470,7 +2461,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="72"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -2486,7 +2477,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="76"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2497,7 +2488,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="72"/>
+      <c r="T39" s="70"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -2513,7 +2504,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="76"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2524,7 +2515,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="72"/>
+      <c r="T40" s="70"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -2545,7 +2536,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="76"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2556,7 +2547,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="72"/>
+      <c r="T41" s="70"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -2577,7 +2568,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="76"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2588,7 +2579,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="72"/>
+      <c r="T42" s="70"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -2604,7 +2595,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="76"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2615,7 +2606,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="72"/>
+      <c r="T43" s="70"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -2631,7 +2622,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="76"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2662,7 +2653,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="76"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2694,7 +2685,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="76"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2726,7 +2717,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="76"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2758,7 +2749,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="76"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2790,7 +2781,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="76"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2817,12 +2808,12 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="71"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="79"/>
+      <c r="I50" s="77"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -2831,7 +2822,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="71"/>
+      <c r="R50" s="69"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -2854,7 +2845,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="76"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2886,7 +2877,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="80"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -2918,7 +2909,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="80"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -2950,7 +2941,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="81"/>
+      <c r="I54" s="79"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -2982,7 +2973,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="80"/>
+      <c r="I55" s="78"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -3014,7 +3005,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="80"/>
+      <c r="I56" s="78"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -3027,10 +3018,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3046,7 +3037,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="80"/>
+      <c r="I57" s="78"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -3059,8 +3050,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3073,7 +3064,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="80"/>
+      <c r="I58" s="78"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -3086,8 +3077,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3100,7 +3091,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="80"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -3127,7 +3118,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="80"/>
+      <c r="I60" s="78"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -3154,7 +3145,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="80"/>
+      <c r="I61" s="78"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -3186,7 +3177,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="80"/>
+      <c r="I62" s="78"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -3218,7 +3209,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="80"/>
+      <c r="I63" s="78"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -3245,7 +3236,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="80"/>
+      <c r="I64" s="78"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -3272,7 +3263,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="80"/>
+      <c r="I65" s="78"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -3299,7 +3290,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="80"/>
+      <c r="I66" s="78"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -3326,7 +3317,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="80"/>
+      <c r="I67" s="78"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -3356,7 +3347,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="80"/>
+      <c r="I68" s="78"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -3383,7 +3374,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="80"/>
+      <c r="I69" s="78"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -3410,7 +3401,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="80"/>
+      <c r="I70" s="78"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -3437,7 +3428,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="80"/>
+      <c r="I71" s="78"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -3464,7 +3455,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="80"/>
+      <c r="I72" s="78"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -3491,7 +3482,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="80"/>
+      <c r="I73" s="78"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -3518,7 +3509,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="80"/>
+      <c r="I74" s="78"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -3545,7 +3536,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="80"/>
+      <c r="I75" s="78"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -3572,7 +3563,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="80"/>
+      <c r="I76" s="78"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -3599,7 +3590,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="80"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -3626,7 +3617,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="80"/>
+      <c r="I78" s="78"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -3653,7 +3644,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="80"/>
+      <c r="I79" s="78"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -3680,7 +3671,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="80"/>
+      <c r="I80" s="78"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -3707,7 +3698,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="80"/>
+      <c r="I81" s="78"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -3734,7 +3725,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="80"/>
+      <c r="I82" s="78"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -3761,7 +3752,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="80"/>
+      <c r="I83" s="78"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -3788,7 +3779,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="80"/>
+      <c r="I84" s="78"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -3815,7 +3806,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="80"/>
+      <c r="I85" s="78"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -3842,7 +3833,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="80"/>
+      <c r="I86" s="78"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -3869,7 +3860,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="80"/>
+      <c r="I87" s="78"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -3896,7 +3887,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="80"/>
+      <c r="I88" s="78"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -3923,7 +3914,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="80"/>
+      <c r="I89" s="78"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -3950,7 +3941,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="80"/>
+      <c r="I90" s="78"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -3977,7 +3968,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="80"/>
+      <c r="I91" s="78"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -4004,7 +3995,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="80"/>
+      <c r="I92" s="78"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -4031,7 +4022,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="80"/>
+      <c r="I93" s="78"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -4058,7 +4049,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="80"/>
+      <c r="I94" s="78"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -4085,7 +4076,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="80"/>
+      <c r="I95" s="78"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -4112,7 +4103,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="80"/>
+      <c r="I96" s="78"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -4139,7 +4130,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="80"/>
+      <c r="I97" s="78"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -4166,7 +4157,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="80"/>
+      <c r="I98" s="78"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -4193,7 +4184,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="80"/>
+      <c r="I99" s="78"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -4220,7 +4211,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="80"/>
+      <c r="I100" s="78"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -4247,7 +4238,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="80"/>
+      <c r="I101" s="78"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -4274,7 +4265,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="80"/>
+      <c r="I102" s="78"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -4301,7 +4292,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="80"/>
+      <c r="I103" s="78"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -4328,7 +4319,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="80"/>
+      <c r="I104" s="78"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -4355,7 +4346,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="80"/>
+      <c r="I105" s="78"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -4374,6 +4365,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4384,16 +4385,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4404,8 +4395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4418,7 +4409,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="82" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="80" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -4436,46 +4427,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="A1" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="73"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -4500,7 +4491,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="74"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -4517,7 +4508,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="88" t="s">
@@ -4537,16 +4528,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="88" t="s">
@@ -4555,7 +4546,7 @@
       <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -4568,7 +4559,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4590,7 +4581,7 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="88"/>
@@ -4600,13 +4591,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="88"/>
       <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="88"/>
@@ -4616,11 +4607,11 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>119</v>
+      <c r="B6" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
@@ -4633,27 +4624,27 @@
         <v>83</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="53" t="s">
         <v>110</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" s="53" t="s">
-        <v>111</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>19</v>
@@ -4665,8 +4656,8 @@
         <v>23</v>
       </c>
       <c r="T6" s="28"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="91" t="s">
+      <c r="U6" s="70"/>
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4677,11 +4668,11 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>119</v>
+      <c r="B7" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
@@ -4694,25 +4685,25 @@
         <v>83</v>
       </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="66" t="s">
-        <v>109</v>
+      <c r="I7" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="53"/>
       <c r="M7" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P7" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
@@ -4724,8 +4715,8 @@
         <v>23</v>
       </c>
       <c r="T7" s="28"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="92"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4734,14 +4725,14 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="50"/>
       <c r="D8" s="51"/>
       <c r="E8" s="52"/>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="66"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
@@ -4753,8 +4744,8 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="92"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4763,14 +4754,14 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="51"/>
       <c r="E9" s="52"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="66"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="56"/>
@@ -4781,9 +4772,9 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="92"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4792,14 +4783,14 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="66"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="53"/>
       <c r="K10" s="1"/>
       <c r="L10" s="53"/>
@@ -4810,9 +4801,9 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="92"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4828,7 +4819,7 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="66"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="53"/>
       <c r="K11" s="56"/>
       <c r="L11" s="1"/>
@@ -4839,9 +4830,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="92"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4857,7 +4848,7 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="66"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="53"/>
       <c r="K12" s="1"/>
       <c r="L12" s="56"/>
@@ -4868,9 +4859,9 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="91" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4888,7 +4879,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="66"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="53"/>
       <c r="K13" s="54"/>
       <c r="L13" s="1"/>
@@ -4899,9 +4890,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="92"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4917,7 +4908,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="1"/>
       <c r="K14" s="53"/>
       <c r="L14" s="1"/>
@@ -4928,9 +4919,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="11"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="92"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4946,7 +4937,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="67"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4957,9 +4948,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="72"/>
+      <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4975,7 +4966,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="67"/>
+      <c r="I16" s="65"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -4986,9 +4977,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="72"/>
+      <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5004,7 +4995,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="76"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -5015,9 +5006,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="72"/>
+      <c r="T17" s="70"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="72"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5031,7 +5022,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="77"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="1"/>
@@ -5042,7 +5033,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="72"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -5058,7 +5049,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="76"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5069,7 +5060,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="72"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -5089,7 +5080,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5100,7 +5091,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="72"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -5121,7 +5112,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="76"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5132,7 +5123,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="72"/>
+      <c r="T21" s="70"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -5153,7 +5144,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="78"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -5164,7 +5155,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="72"/>
+      <c r="T22" s="70"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -5185,7 +5176,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="78"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -5196,7 +5187,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="72"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -5212,7 +5203,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="78"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -5223,7 +5214,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="72"/>
+      <c r="T24" s="70"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -5239,7 +5230,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="78"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -5250,7 +5241,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="72"/>
+      <c r="T25" s="70"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -5270,7 +5261,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="78"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -5281,7 +5272,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="72"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -5302,7 +5293,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="78"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -5313,7 +5304,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="72"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -5334,7 +5325,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5345,7 +5336,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="72"/>
+      <c r="T28" s="70"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -5366,7 +5357,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="76"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5377,7 +5368,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="72"/>
+      <c r="T29" s="70"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -5398,7 +5389,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5409,7 +5400,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="72"/>
+      <c r="T30" s="70"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -5430,7 +5421,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="76"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5441,7 +5432,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="72"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -5462,7 +5453,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5473,7 +5464,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="72"/>
+      <c r="T32" s="70"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -5494,7 +5485,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="76"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5505,7 +5496,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="72"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -5526,7 +5517,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="76"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5537,7 +5528,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="72"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -5558,7 +5549,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="76"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5569,7 +5560,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="72"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -5590,7 +5581,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="76"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5601,7 +5592,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="72"/>
+      <c r="T36" s="70"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -5622,7 +5613,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5633,7 +5624,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="72"/>
+      <c r="T37" s="70"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
@@ -5654,7 +5645,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="76"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5665,7 +5656,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="72"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -5681,7 +5672,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="76"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5692,7 +5683,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="72"/>
+      <c r="T39" s="70"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -5708,7 +5699,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="76"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -5719,7 +5710,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="72"/>
+      <c r="T40" s="70"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -5740,7 +5731,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="76"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5751,7 +5742,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="72"/>
+      <c r="T41" s="70"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -5772,7 +5763,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="76"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5783,7 +5774,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="72"/>
+      <c r="T42" s="70"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -5799,7 +5790,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="76"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -5810,7 +5801,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="72"/>
+      <c r="T43" s="70"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -5826,7 +5817,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="76"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -5857,7 +5848,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="76"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -5889,7 +5880,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="76"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -5921,7 +5912,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="76"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -5953,7 +5944,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="76"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -5985,7 +5976,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="76"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6012,12 +6003,12 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="71"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="79"/>
+      <c r="I50" s="77"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -6026,7 +6017,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="71"/>
+      <c r="R50" s="69"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -6049,7 +6040,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="76"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6081,7 +6072,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="80"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -6113,7 +6104,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="80"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -6145,7 +6136,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="81"/>
+      <c r="I54" s="79"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -6177,7 +6168,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="80"/>
+      <c r="I55" s="78"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -6209,7 +6200,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="80"/>
+      <c r="I56" s="78"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -6222,10 +6213,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6241,7 +6232,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="80"/>
+      <c r="I57" s="78"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -6254,8 +6245,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6268,7 +6259,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="80"/>
+      <c r="I58" s="78"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -6281,8 +6272,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -6295,7 +6286,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="80"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -6322,7 +6313,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="80"/>
+      <c r="I60" s="78"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -6349,7 +6340,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="80"/>
+      <c r="I61" s="78"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -6381,7 +6372,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="80"/>
+      <c r="I62" s="78"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -6413,7 +6404,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="80"/>
+      <c r="I63" s="78"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -6440,7 +6431,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="80"/>
+      <c r="I64" s="78"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -6467,7 +6458,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="80"/>
+      <c r="I65" s="78"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -6494,7 +6485,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="80"/>
+      <c r="I66" s="78"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -6521,7 +6512,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="80"/>
+      <c r="I67" s="78"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -6551,7 +6542,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="80"/>
+      <c r="I68" s="78"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -6578,7 +6569,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="80"/>
+      <c r="I69" s="78"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -6605,7 +6596,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="80"/>
+      <c r="I70" s="78"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -6632,7 +6623,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="80"/>
+      <c r="I71" s="78"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -6659,7 +6650,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="80"/>
+      <c r="I72" s="78"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -6686,7 +6677,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="80"/>
+      <c r="I73" s="78"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -6713,7 +6704,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="80"/>
+      <c r="I74" s="78"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -6740,7 +6731,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="80"/>
+      <c r="I75" s="78"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -6767,7 +6758,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="80"/>
+      <c r="I76" s="78"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -6794,7 +6785,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="80"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -6821,7 +6812,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="80"/>
+      <c r="I78" s="78"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -6848,7 +6839,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="80"/>
+      <c r="I79" s="78"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -6875,7 +6866,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="80"/>
+      <c r="I80" s="78"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -6902,7 +6893,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="80"/>
+      <c r="I81" s="78"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -6929,7 +6920,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="80"/>
+      <c r="I82" s="78"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -6956,7 +6947,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="80"/>
+      <c r="I83" s="78"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -6983,7 +6974,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="80"/>
+      <c r="I84" s="78"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -7010,7 +7001,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="80"/>
+      <c r="I85" s="78"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -7037,7 +7028,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="80"/>
+      <c r="I86" s="78"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -7064,7 +7055,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="80"/>
+      <c r="I87" s="78"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -7091,7 +7082,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="80"/>
+      <c r="I88" s="78"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -7118,7 +7109,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="80"/>
+      <c r="I89" s="78"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -7145,7 +7136,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="80"/>
+      <c r="I90" s="78"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -7172,7 +7163,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="80"/>
+      <c r="I91" s="78"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -7199,7 +7190,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="80"/>
+      <c r="I92" s="78"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -7226,7 +7217,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="80"/>
+      <c r="I93" s="78"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -7253,7 +7244,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="80"/>
+      <c r="I94" s="78"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -7280,7 +7271,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="80"/>
+      <c r="I95" s="78"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -7307,7 +7298,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="80"/>
+      <c r="I96" s="78"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -7334,7 +7325,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="80"/>
+      <c r="I97" s="78"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -7361,7 +7352,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="80"/>
+      <c r="I98" s="78"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -7388,7 +7379,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="80"/>
+      <c r="I99" s="78"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -7415,7 +7406,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="80"/>
+      <c r="I100" s="78"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -7442,7 +7433,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="80"/>
+      <c r="I101" s="78"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -7469,7 +7460,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="80"/>
+      <c r="I102" s="78"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -7496,7 +7487,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="80"/>
+      <c r="I103" s="78"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -7523,7 +7514,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="80"/>
+      <c r="I104" s="78"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -7550,7 +7541,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="80"/>
+      <c r="I105" s="78"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -7569,6 +7560,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7579,16 +7580,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7599,8 +7590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7631,43 +7622,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="A1" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7712,7 +7703,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="88" t="s">
@@ -7732,16 +7723,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="88" t="s">
@@ -7750,7 +7741,7 @@
       <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -7763,7 +7754,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7795,13 +7786,13 @@
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="88"/>
       <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="88"/>
@@ -7811,11 +7802,11 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>103</v>
+      <c r="B6" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
@@ -7831,35 +7822,35 @@
         <v>71</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="53" t="s">
         <v>94</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>95</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6" s="53" t="s">
         <v>75</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="51" t="s">
         <v>101</v>
-      </c>
-      <c r="R6" s="51" t="s">
-        <v>102</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="91" t="s">
+      <c r="U6" s="68"/>
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7870,11 +7861,11 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>103</v>
+      <c r="B7" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
@@ -7890,21 +7881,21 @@
         <v>71</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L7" s="53"/>
       <c r="M7" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P7" s="53" t="s">
         <v>75</v>
@@ -7919,8 +7910,8 @@
         <v>76</v>
       </c>
       <c r="T7" s="28"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="92"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7929,8 +7920,8 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>120</v>
+      <c r="B8" s="66" t="s">
+        <v>119</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="51" t="s">
@@ -7944,26 +7935,26 @@
         <v>68</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>73</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P8" s="53" t="s">
         <v>75</v>
@@ -7978,8 +7969,8 @@
         <v>76</v>
       </c>
       <c r="T8" s="28"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="92"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7988,10 +7979,10 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="68"/>
+      <c r="B9" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="66"/>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
@@ -8006,21 +7997,21 @@
         <v>71</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="56"/>
       <c r="M9" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" s="53" t="s">
         <v>75</v>
@@ -8034,9 +8025,9 @@
       <c r="S9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="92"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8045,27 +8036,57 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="66"/>
+      <c r="B10" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="52">
+        <v>864811036929680</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="92"/>
+      <c r="K10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="56"/>
+      <c r="M10" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8074,27 +8095,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="52">
+        <v>869627031844913</v>
+      </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="G11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>71</v>
+      </c>
       <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="92"/>
+      <c r="J11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8103,27 +8152,53 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="50">
+        <v>44139</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="52">
+        <v>868926033948867</v>
+      </c>
       <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
+      <c r="G12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="91" t="s">
+      <c r="O12" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8134,27 +8209,49 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="B13" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="52">
+        <v>864811036929656</v>
+      </c>
       <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="92"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8163,27 +8260,53 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="B14" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="52">
+        <v>864811037285280</v>
+      </c>
       <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="G14" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="I14" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="92"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8210,9 +8333,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="70"/>
+      <c r="T15" s="68"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8239,9 +8362,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="70"/>
+      <c r="T16" s="68"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8268,9 +8391,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="70"/>
+      <c r="T17" s="68"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="70"/>
+      <c r="V17" s="68"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8295,7 +8418,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="70"/>
+      <c r="T18" s="68"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -8322,7 +8445,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="70"/>
+      <c r="T19" s="68"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -8353,14 +8476,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="70"/>
+      <c r="T20" s="68"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8385,14 +8508,14 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="70"/>
+      <c r="T21" s="68"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8417,14 +8540,14 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="70"/>
+      <c r="T22" s="68"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8449,7 +8572,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="70"/>
+      <c r="T23" s="68"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -8476,7 +8599,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="70"/>
+      <c r="T24" s="68"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -8503,7 +8626,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="70"/>
+      <c r="T25" s="68"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -8534,7 +8657,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="70"/>
+      <c r="T26" s="68"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -8566,7 +8689,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="70"/>
+      <c r="T27" s="68"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -8598,7 +8721,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="70"/>
+      <c r="T28" s="68"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -8630,7 +8753,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="70"/>
+      <c r="T29" s="68"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -8662,7 +8785,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="70"/>
+      <c r="T30" s="68"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -8694,14 +8817,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="70"/>
+      <c r="T31" s="68"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8726,7 +8849,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="70"/>
+      <c r="T32" s="68"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -8758,7 +8881,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="70"/>
+      <c r="T33" s="68"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -8790,14 +8913,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="70"/>
+      <c r="T34" s="68"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8822,14 +8945,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="70"/>
+      <c r="T35" s="68"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8854,7 +8977,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="70"/>
+      <c r="T36" s="68"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -8886,14 +9009,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="70"/>
+      <c r="T37" s="68"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8918,7 +9041,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="70"/>
+      <c r="T38" s="68"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -8945,7 +9068,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="70"/>
+      <c r="T39" s="68"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -8972,7 +9095,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="70"/>
+      <c r="T40" s="68"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -9004,14 +9127,14 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="70"/>
+      <c r="T41" s="68"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9036,7 +9159,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="70"/>
+      <c r="T42" s="68"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -9063,7 +9186,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="70"/>
+      <c r="T43" s="68"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -9224,7 +9347,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9265,10 +9388,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="69"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -9279,7 +9402,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="69"/>
+      <c r="R50" s="67"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -9475,10 +9598,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9507,8 +9630,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9534,8 +9657,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -9652,7 +9775,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10822,6 +10945,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10832,16 +10965,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10852,8 +10975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10884,43 +11007,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="A1" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10965,7 +11088,7 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="88" t="s">
@@ -10985,16 +11108,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="88" t="s">
@@ -11003,7 +11126,7 @@
       <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
@@ -11016,45 +11139,45 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="88"/>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="88"/>
       <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="88"/>
@@ -11064,57 +11187,55 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>91</v>
+      <c r="B6" s="50">
+        <v>44149</v>
+      </c>
+      <c r="C6" s="50">
+        <v>44158</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="52">
-        <v>864811036929680</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>67</v>
-      </c>
+        <v>860906041136075</v>
+      </c>
+      <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="56"/>
+      <c r="H6" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="53" t="s">
+        <v>117</v>
+      </c>
       <c r="M6" s="53" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6" s="53" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="91" t="s">
+      <c r="U6" s="30"/>
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11125,55 +11246,57 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>91</v>
+      <c r="B7" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="52">
-        <v>869627031844913</v>
+        <v>868183033826558</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="64" t="s">
+        <v>109</v>
+      </c>
       <c r="J7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53" t="s">
-        <v>77</v>
+        <v>104</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>107</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="N7" s="55"/>
       <c r="O7" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P7" s="53" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="56" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="T7" s="28"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="92"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11182,53 +11305,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="50">
-        <v>44139</v>
+      <c r="B8" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="52">
-        <v>868926033948867</v>
+        <v>44</v>
+      </c>
+      <c r="E8" s="57">
+        <v>868183033807509</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
+        <v>83</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="L8" s="53"/>
       <c r="M8" s="53" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P8" s="53" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="R8" s="56" t="s">
         <v>24</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="T8" s="28"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="92"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11237,45 +11362,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="66" t="s">
         <v>91</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>102</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="52">
-        <v>864811036929656</v>
+        <v>868926033991644</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="66"/>
+        <v>68</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>95</v>
+      </c>
       <c r="J9" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="53"/>
+        <v>93</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>94</v>
+      </c>
       <c r="L9" s="56"/>
       <c r="M9" s="53" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P9" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+        <v>75</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>101</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="92"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11284,53 +11419,57 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="68" t="s">
+      <c r="B10" s="66" t="s">
         <v>91</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>102</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="52">
-        <v>864811037285280</v>
+      <c r="E10" s="57">
+        <v>866192037824677</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="53"/>
+        <v>68</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>89</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="L10" s="53"/>
       <c r="M10" s="53" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="92"/>
+      <c r="S10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11339,27 +11478,57 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="66" t="s">
+        <v>119</v>
+      </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="52">
+        <v>866050031811670</v>
+      </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="92"/>
+      <c r="G11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11368,27 +11537,55 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="52">
+        <v>868926033923811</v>
+      </c>
       <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>120</v>
+      </c>
       <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="91" t="s">
+      <c r="M12" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11405,21 +11602,21 @@
       <c r="E13" s="52"/>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="55"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="53"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="92"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11435,20 +11632,20 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="53"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="56"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="92"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11460,24 +11657,24 @@
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="55"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="53"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="64"/>
+      <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11492,21 +11689,21 @@
       <c r="E16" s="52"/>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="56"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="64"/>
+      <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11522,20 +11719,20 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="55"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="56"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="64"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="30"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11549,18 +11746,18 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="15"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="55"/>
       <c r="O18" s="53"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="56"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="64"/>
+      <c r="T18" s="30"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -11569,27 +11766,27 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="56"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="64"/>
+      <c r="T19" s="30"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="58" t="s">
+      <c r="V19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="19" t="s">
@@ -11600,89 +11797,89 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="64"/>
+      <c r="T20" s="30"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="64"/>
+      <c r="T21" s="30"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="64"/>
+      <c r="T22" s="30"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -11696,25 +11893,25 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="64"/>
+      <c r="T23" s="30"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -11723,25 +11920,25 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="64"/>
+      <c r="T24" s="30"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -11750,27 +11947,27 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="51"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="64"/>
+      <c r="T25" s="30"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="58" t="s">
+      <c r="V25" s="5" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="19" t="s">
@@ -11781,25 +11978,25 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="51"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="64"/>
+      <c r="T26" s="30"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -11813,57 +12010,57 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="51"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="64"/>
+      <c r="T27" s="30"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="64"/>
+      <c r="T28" s="30"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -11895,7 +12092,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="64"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -11927,7 +12124,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="64"/>
+      <c r="T30" s="30"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -11959,14 +12156,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="64"/>
+      <c r="T31" s="30"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11991,7 +12188,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="64"/>
+      <c r="T32" s="30"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -12023,7 +12220,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="64"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -12055,14 +12252,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="64"/>
+      <c r="T34" s="30"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12087,14 +12284,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="64"/>
+      <c r="T35" s="30"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12119,7 +12316,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="64"/>
+      <c r="T36" s="30"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -12151,14 +12348,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="64"/>
+      <c r="T37" s="30"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12183,7 +12380,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="64"/>
+      <c r="T38" s="30"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -12210,7 +12407,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="64"/>
+      <c r="T39" s="30"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -12237,7 +12434,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="64"/>
+      <c r="T40" s="30"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -12269,7 +12466,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="64"/>
+      <c r="T41" s="30"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -12301,7 +12498,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="64"/>
+      <c r="T42" s="30"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -12328,7 +12525,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="64"/>
+      <c r="T43" s="30"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -12357,10 +12554,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="46"/>
       <c r="U44" s="16"/>
-      <c r="V44" s="58" t="s">
+      <c r="V44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="58" t="s">
+      <c r="W44" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -12393,7 +12590,7 @@
       </c>
       <c r="W45" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12425,7 +12622,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12489,7 +12686,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12530,10 +12727,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="63"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -12544,7 +12741,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="63"/>
+      <c r="R50" s="31"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -12740,10 +12937,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12772,8 +12969,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12799,8 +12996,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14087,6 +14284,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14097,3153 +14304,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W105"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="53" style="22" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="58" style="22" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
-    <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="22"/>
-    <col min="22" max="22" width="30.5703125" style="22" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="29"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="29"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-    </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W21" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W22" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="18"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="18"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="W25" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" s="11">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W27" s="11">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W28" s="11">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W29" s="11">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W30" s="11">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W31" s="11">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W32" s="11">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W33" s="11">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W34" s="11">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="11">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W36" s="11">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="W37" s="11">
-        <f>SUM(W26:W36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="18"/>
-    </row>
-    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="18"/>
-    </row>
-    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="W40" s="11">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W41" s="11">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="18"/>
-    </row>
-    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="18"/>
-    </row>
-    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W45" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W46" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W47" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W48" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="W49" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
-        <v>45</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="W50" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="W51" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG007")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="W52" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="W53" s="11">
-        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
-        <v>49</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="W54" s="11">
-        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W55" s="11">
-        <f>COUNTIF($D$6:$D$105,"CBN")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>51</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="W56" s="94">
-        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>52</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
-    </row>
-    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>53</v>
-      </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
-    </row>
-    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>54</v>
-      </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="48"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="39"/>
-    </row>
-    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>55</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="39"/>
-    </row>
-    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>56</v>
-      </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="48"/>
-      <c r="V61" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="W61" s="11">
-        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>57</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="48"/>
-      <c r="V62" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="W62" s="11">
-        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>58</v>
-      </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="48"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="39"/>
-    </row>
-    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>59</v>
-      </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="48"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="39"/>
-    </row>
-    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>60</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="48"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="39"/>
-    </row>
-    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>61</v>
-      </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="48"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="39"/>
-    </row>
-    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>62</v>
-      </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="48"/>
-      <c r="V67" s="38">
-        <f>SUM(D6:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="W67" s="39"/>
-    </row>
-    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>63</v>
-      </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="39"/>
-    </row>
-    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>64</v>
-      </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="39"/>
-    </row>
-    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>65</v>
-      </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="48"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="39"/>
-    </row>
-    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>66</v>
-      </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="48"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="39"/>
-    </row>
-    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>67</v>
-      </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="48"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="39"/>
-    </row>
-    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>68</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="48"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="39"/>
-    </row>
-    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>69</v>
-      </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="48"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="39"/>
-    </row>
-    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>70</v>
-      </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="48"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="39"/>
-    </row>
-    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>71</v>
-      </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="48"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="39"/>
-    </row>
-    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>72</v>
-      </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="48"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="39"/>
-    </row>
-    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>73</v>
-      </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="48"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="39"/>
-    </row>
-    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>74</v>
-      </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="48"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="39"/>
-    </row>
-    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>75</v>
-      </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="48"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="39"/>
-    </row>
-    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>76</v>
-      </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="48"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="39"/>
-    </row>
-    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>77</v>
-      </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="48"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="39"/>
-    </row>
-    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>78</v>
-      </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="48"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="39"/>
-    </row>
-    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>79</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="48"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="39"/>
-    </row>
-    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>80</v>
-      </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="48"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="39"/>
-    </row>
-    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>81</v>
-      </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="46"/>
-      <c r="U86" s="48"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="39"/>
-    </row>
-    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>82</v>
-      </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="48"/>
-      <c r="V87" s="38"/>
-      <c r="W87" s="39"/>
-    </row>
-    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>83</v>
-      </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="39"/>
-    </row>
-    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
-        <v>84</v>
-      </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="48"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="39"/>
-    </row>
-    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>85</v>
-      </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="48"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="39"/>
-    </row>
-    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>86</v>
-      </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="46"/>
-      <c r="U91" s="48"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="39"/>
-    </row>
-    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>87</v>
-      </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="46"/>
-      <c r="U92" s="48"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="39"/>
-    </row>
-    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>88</v>
-      </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="39"/>
-    </row>
-    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>89</v>
-      </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="39"/>
-    </row>
-    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>90</v>
-      </c>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="46"/>
-      <c r="U95" s="48"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="39"/>
-    </row>
-    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>91</v>
-      </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="48"/>
-      <c r="V96" s="38"/>
-      <c r="W96" s="39"/>
-    </row>
-    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>92</v>
-      </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="48"/>
-      <c r="V97" s="38"/>
-      <c r="W97" s="39"/>
-    </row>
-    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>93</v>
-      </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="46"/>
-      <c r="U98" s="48"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="39"/>
-    </row>
-    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>94</v>
-      </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="36"/>
-      <c r="R99" s="36"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="46"/>
-      <c r="U99" s="48"/>
-      <c r="V99" s="38"/>
-      <c r="W99" s="39"/>
-    </row>
-    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>95</v>
-      </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="36"/>
-      <c r="R100" s="36"/>
-      <c r="S100" s="36"/>
-      <c r="T100" s="46"/>
-      <c r="U100" s="48"/>
-      <c r="V100" s="38"/>
-      <c r="W100" s="39"/>
-    </row>
-    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>96</v>
-      </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="36"/>
-      <c r="S101" s="36"/>
-      <c r="T101" s="46"/>
-      <c r="U101" s="48"/>
-      <c r="V101" s="38"/>
-      <c r="W101" s="39"/>
-    </row>
-    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>97</v>
-      </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="36"/>
-      <c r="R102" s="36"/>
-      <c r="S102" s="36"/>
-      <c r="T102" s="46"/>
-      <c r="U102" s="48"/>
-      <c r="V102" s="38"/>
-      <c r="W102" s="39"/>
-    </row>
-    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>98</v>
-      </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
-      <c r="S103" s="36"/>
-      <c r="T103" s="46"/>
-      <c r="U103" s="48"/>
-      <c r="V103" s="38"/>
-      <c r="W103" s="39"/>
-    </row>
-    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>99</v>
-      </c>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="36"/>
-      <c r="T104" s="46"/>
-      <c r="U104" s="48"/>
-      <c r="V104" s="38"/>
-      <c r="W104" s="39"/>
-    </row>
-    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>100</v>
-      </c>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
-      <c r="S105" s="36"/>
-      <c r="T105" s="47"/>
-      <c r="U105" s="49"/>
-      <c r="V105" s="40"/>
-      <c r="W105" s="41"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="S1:S105"/>
-  <mergeCells count="20">
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Lapdat.xlsx
@@ -5,31 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="31" r:id="rId1"/>
-    <sheet name="TG102SE" sheetId="30" r:id="rId2"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId3"/>
+    <sheet name="TG102E" sheetId="33" r:id="rId1"/>
+    <sheet name="TG102LE" sheetId="32" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="31" r:id="rId3"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongHopThang!$S$1:$S$105</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -294,9 +297,6 @@
     <t>Không sửa</t>
   </si>
   <si>
-    <t>Lỗi</t>
-  </si>
-  <si>
     <t>Danh</t>
   </si>
   <si>
@@ -346,6 +346,69 @@
   </si>
   <si>
     <t>21/11/2020</t>
+  </si>
+  <si>
+    <t>23/11/2020</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi gsm</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khởi động</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180615</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock : 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Lock : 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Nạp lại FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị chập module MC60</t>
+  </si>
+  <si>
+    <t>Thay module MC60</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>ID mới : 862549041579122</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>24/11/2020</t>
+  </si>
+  <si>
+    <t>26/11/2020</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị dự phòng, Id: 866050031761339</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -568,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -756,12 +819,6 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,6 +836,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1244,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="80" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -1169,46 +1262,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="A1" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -1233,7 +1326,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1250,58 +1343,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1323,81 +1416,81 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>103</v>
+      <c r="B6" s="50">
+        <v>44149</v>
+      </c>
+      <c r="C6" s="50">
+        <v>44158</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="52">
-        <v>868926033991644</v>
+        <v>860906041136075</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>96</v>
+      <c r="H6" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>115</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="56"/>
+        <v>113</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="53" t="s">
+        <v>117</v>
+      </c>
       <c r="M6" s="53" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6" s="53" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1408,57 +1501,27 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="57">
-        <v>866192037824677</v>
-      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="53" t="s">
-        <v>99</v>
-      </c>
+      <c r="M7" s="53"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1467,14 +1530,14 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="50"/>
       <c r="D8" s="51"/>
       <c r="E8" s="52"/>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
@@ -1487,7 +1550,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1496,17 +1559,17 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="51"/>
       <c r="E9" s="52"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="66"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="53"/>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
@@ -1516,7 +1579,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1525,14 +1588,14 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="66"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="53"/>
       <c r="K10" s="1"/>
       <c r="L10" s="53"/>
@@ -1545,7 +1608,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1561,10 +1624,10 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="53"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="53"/>
       <c r="M11" s="53"/>
       <c r="N11" s="55"/>
       <c r="O11" s="53"/>
@@ -1574,7 +1637,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1586,24 +1649,24 @@
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
       <c r="D12" s="51"/>
-      <c r="E12" s="57"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="53"/>
-      <c r="N12" s="3"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="56"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1620,21 +1683,21 @@
       <c r="E13" s="52"/>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="55"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="53"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1650,20 +1713,20 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="53"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1675,24 +1738,24 @@
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="55"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="53"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1707,21 +1770,21 @@
       <c r="E16" s="52"/>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1737,16 +1800,16 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="55"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="56"/>
       <c r="S17" s="4"/>
       <c r="T17" s="70"/>
       <c r="U17" s="16"/>
@@ -1764,16 +1827,16 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="15"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="55"/>
       <c r="O18" s="53"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="56"/>
       <c r="S18" s="4"/>
       <c r="T18" s="70"/>
       <c r="U18" s="16"/>
@@ -1784,23 +1847,23 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="56"/>
       <c r="S19" s="4"/>
       <c r="T19" s="70"/>
       <c r="U19" s="16"/>
@@ -1815,22 +1878,22 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
       <c r="T20" s="70"/>
@@ -1847,22 +1910,22 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
       <c r="T21" s="70"/>
@@ -1879,22 +1942,22 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
       <c r="T22" s="70"/>
@@ -1911,22 +1974,22 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
       <c r="T23" s="70"/>
@@ -1938,22 +2001,22 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
       <c r="T24" s="70"/>
@@ -1965,23 +2028,23 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="51"/>
       <c r="S25" s="4"/>
       <c r="T25" s="70"/>
       <c r="U25" s="16"/>
@@ -1996,23 +2059,23 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="51"/>
       <c r="S26" s="4"/>
       <c r="T26" s="70"/>
       <c r="U26" s="16"/>
@@ -2028,23 +2091,23 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="51"/>
       <c r="S27" s="4"/>
       <c r="T27" s="70"/>
       <c r="U27" s="16"/>
@@ -2053,29 +2116,29 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
       <c r="T28" s="70"/>
@@ -2099,7 +2162,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2131,7 +2194,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2163,7 +2226,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2181,7 +2244,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2195,7 +2258,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2227,7 +2290,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2259,7 +2322,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2291,7 +2354,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2309,7 +2372,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2323,7 +2386,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2355,7 +2418,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2373,7 +2436,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2387,7 +2450,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2414,7 +2477,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2441,7 +2504,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2473,7 +2536,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2505,7 +2568,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2532,7 +2595,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2559,7 +2622,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2590,7 +2653,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2608,7 +2671,7 @@
       </c>
       <c r="W45" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,7 +2685,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2654,7 +2717,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2686,7 +2749,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2704,7 +2767,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,7 +2781,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2750,7 +2813,7 @@
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="77"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -2782,7 +2845,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2814,7 +2877,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -2846,7 +2909,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -2878,7 +2941,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="79"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -2910,7 +2973,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="78"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -2942,7 +3005,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="78"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -2955,10 +3018,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2974,7 +3037,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="78"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -2987,8 +3050,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3001,7 +3064,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="78"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -3014,8 +3077,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3028,7 +3091,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -3055,7 +3118,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="I60" s="78"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -3082,7 +3145,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="78"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -3114,7 +3177,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="78"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -3146,7 +3209,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="78"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -3173,7 +3236,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="I64" s="78"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -3200,7 +3263,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="78"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -3227,7 +3290,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="I66" s="78"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -3254,7 +3317,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="I67" s="78"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -3284,7 +3347,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="78"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -3311,7 +3374,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="I69" s="78"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -3338,7 +3401,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="78"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -3365,7 +3428,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="78"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -3392,7 +3455,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="78"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -3419,7 +3482,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="78"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -3446,7 +3509,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="78"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -3473,7 +3536,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="78"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -3500,7 +3563,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="78"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -3527,7 +3590,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -3554,7 +3617,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="78"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -3581,7 +3644,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="78"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -3608,7 +3671,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="78"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -3635,7 +3698,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="78"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -3662,7 +3725,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="I82" s="78"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -3689,7 +3752,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="I83" s="78"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -3716,7 +3779,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="78"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -3743,7 +3806,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="I85" s="78"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -3770,7 +3833,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="I86" s="78"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -3797,7 +3860,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="I87" s="78"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -3824,7 +3887,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="I88" s="78"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -3851,7 +3914,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="I89" s="78"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -3878,7 +3941,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="78"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -3905,7 +3968,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="78"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -3932,7 +3995,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="78"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -3959,7 +4022,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="78"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -3986,7 +4049,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="78"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -4013,7 +4076,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="78"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -4040,7 +4103,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="78"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -4067,7 +4130,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="78"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -4094,7 +4157,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="78"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -4121,7 +4184,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="78"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -4148,7 +4211,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="78"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -4175,7 +4238,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="78"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -4202,7 +4265,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="78"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -4229,7 +4292,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="I103" s="78"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -4256,7 +4319,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="I104" s="78"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -4283,7 +4346,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
+      <c r="I105" s="78"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -4332,8 +4395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4346,7 +4409,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="80" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
@@ -4364,46 +4427,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="A1" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -4428,7 +4491,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -4445,58 +4508,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4518,83 +4581,83 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>91</v>
+      <c r="B6" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="52">
-        <v>864811036929680</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>67</v>
-      </c>
+        <v>868183033826558</v>
+      </c>
+      <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="K6" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="56"/>
+        <v>106</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>107</v>
+      </c>
       <c r="M6" s="53" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6" s="53" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" s="51" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="T6" s="28"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="71" t="s">
+      <c r="U6" s="70"/>
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4605,55 +4668,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>91</v>
+      <c r="B7" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="52">
-        <v>869627031844913</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="57">
+        <v>868183033807509</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="53"/>
+        <v>83</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="64" t="s">
+        <v>108</v>
+      </c>
       <c r="J7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53" t="s">
-        <v>77</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="53"/>
       <c r="M7" s="53" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P7" s="53" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="R7" s="56" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="T7" s="28"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="72"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4662,53 +4725,27 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="50">
-        <v>44139</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="52">
-        <v>868926033948867</v>
-      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="51"/>
-      <c r="G8" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>74</v>
-      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53"/>
-      <c r="M8" s="53" t="s">
-        <v>81</v>
-      </c>
+      <c r="M8" s="53"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="72"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4717,45 +4754,27 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="52">
-        <v>864811036929656</v>
-      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
-        <v>83</v>
-      </c>
+      <c r="G9" s="51"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="56"/>
-      <c r="M9" s="53" t="s">
-        <v>85</v>
-      </c>
+      <c r="M9" s="53"/>
       <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="53" t="s">
-        <v>87</v>
-      </c>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="72"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4764,53 +4783,27 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="52">
-        <v>864811037285280</v>
-      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
-        <v>83</v>
-      </c>
+      <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="66" t="s">
-        <v>88</v>
-      </c>
+      <c r="I10" s="64"/>
       <c r="J10" s="53"/>
-      <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>38</v>
-      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="56" t="s">
-        <v>24</v>
-      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="56"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="72"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4826,7 +4819,7 @@
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="53"/>
       <c r="K11" s="56"/>
       <c r="L11" s="1"/>
@@ -4837,9 +4830,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="72"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4855,7 +4848,7 @@
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="53"/>
       <c r="K12" s="1"/>
       <c r="L12" s="56"/>
@@ -4866,9 +4859,9 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="71" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4886,7 +4879,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="53"/>
       <c r="K13" s="54"/>
       <c r="L13" s="1"/>
@@ -4897,9 +4890,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="72"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4915,7 +4908,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="1"/>
       <c r="K14" s="53"/>
       <c r="L14" s="1"/>
@@ -4926,9 +4919,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="11"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="72"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4944,7 +4937,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4955,9 +4948,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="64"/>
+      <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4973,7 +4966,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="65"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -4984,9 +4977,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="64"/>
+      <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5002,7 +4995,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -5013,9 +5006,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="64"/>
+      <c r="T17" s="70"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5029,7 +5022,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="1"/>
@@ -5040,7 +5033,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="64"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -5056,7 +5049,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5067,7 +5060,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="64"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -5087,7 +5080,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5098,14 +5091,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="64"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5119,7 +5112,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5130,14 +5123,14 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="64"/>
+      <c r="T21" s="70"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5151,7 +5144,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -5162,14 +5155,14 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="64"/>
+      <c r="T22" s="70"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,7 +5176,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -5194,7 +5187,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="64"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -5210,7 +5203,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -5221,7 +5214,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="64"/>
+      <c r="T24" s="70"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -5237,7 +5230,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -5248,7 +5241,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="64"/>
+      <c r="T25" s="70"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -5268,7 +5261,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -5279,7 +5272,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="64"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -5300,7 +5293,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -5311,7 +5304,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="64"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -5332,7 +5325,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="74"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5343,7 +5336,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="64"/>
+      <c r="T28" s="70"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -5364,7 +5357,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5375,7 +5368,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="64"/>
+      <c r="T29" s="70"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -5396,7 +5389,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5407,7 +5400,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="64"/>
+      <c r="T30" s="70"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -5428,7 +5421,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5439,7 +5432,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="64"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -5460,7 +5453,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5471,7 +5464,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="64"/>
+      <c r="T32" s="70"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -5492,7 +5485,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5503,7 +5496,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="64"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -5524,7 +5517,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5535,14 +5528,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="64"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5556,7 +5549,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="74"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5567,14 +5560,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="64"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5588,7 +5581,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5599,7 +5592,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="64"/>
+      <c r="T36" s="70"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -5620,7 +5613,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5631,14 +5624,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="64"/>
+      <c r="T37" s="70"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5652,7 +5645,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5663,7 +5656,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="64"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -5679,7 +5672,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5690,7 +5683,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="64"/>
+      <c r="T39" s="70"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -5706,7 +5699,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="74"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -5717,7 +5710,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="64"/>
+      <c r="T40" s="70"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -5738,7 +5731,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="74"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5749,7 +5742,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="64"/>
+      <c r="T41" s="70"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -5770,7 +5763,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="74"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5781,7 +5774,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="64"/>
+      <c r="T42" s="70"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -5797,7 +5790,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="74"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -5808,7 +5801,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="64"/>
+      <c r="T43" s="70"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -5824,7 +5817,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -5855,7 +5848,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -5887,7 +5880,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -5905,7 +5898,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,7 +5912,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -5951,7 +5944,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -5969,7 +5962,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5983,7 +5976,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6010,12 +6003,12 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="63"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="77"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -6024,7 +6017,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="63"/>
+      <c r="R50" s="69"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -6047,7 +6040,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6079,7 +6072,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -6111,7 +6104,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -6143,7 +6136,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="79"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -6175,7 +6168,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="78"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -6207,7 +6200,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="78"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -6220,10 +6213,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6239,7 +6232,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="78"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -6252,8 +6245,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6266,7 +6259,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="78"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -6279,8 +6272,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -6293,7 +6286,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -6320,7 +6313,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="I60" s="78"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -6347,7 +6340,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="78"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -6379,7 +6372,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="78"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -6411,7 +6404,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="78"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -6438,7 +6431,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="I64" s="78"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -6465,7 +6458,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="78"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -6492,7 +6485,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="I66" s="78"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -6519,7 +6512,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="I67" s="78"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -6549,7 +6542,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="78"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -6576,7 +6569,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="I69" s="78"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -6603,7 +6596,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="78"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -6630,7 +6623,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="78"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -6657,7 +6650,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="78"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -6684,7 +6677,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="78"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -6711,7 +6704,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="78"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -6738,7 +6731,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="78"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -6765,7 +6758,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="78"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -6792,7 +6785,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -6819,7 +6812,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="78"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -6846,7 +6839,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="78"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -6873,7 +6866,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="78"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -6900,7 +6893,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="78"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -6927,7 +6920,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="I82" s="78"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -6954,7 +6947,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="I83" s="78"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -6981,7 +6974,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="78"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -7008,7 +7001,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="I85" s="78"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -7035,7 +7028,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="I86" s="78"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -7062,7 +7055,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="I87" s="78"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -7089,7 +7082,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="I88" s="78"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -7116,7 +7109,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="I89" s="78"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -7143,7 +7136,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="78"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -7170,7 +7163,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="78"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -7197,7 +7190,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="78"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -7224,7 +7217,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="78"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -7251,7 +7244,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="78"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -7278,7 +7271,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="78"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -7305,7 +7298,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="78"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -7332,7 +7325,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="78"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -7359,7 +7352,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="78"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -7386,7 +7379,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="78"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -7413,7 +7406,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="78"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -7440,7 +7433,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="78"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -7467,7 +7460,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="78"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -7494,7 +7487,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="I103" s="78"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -7521,7 +7514,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="I104" s="78"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -7548,7 +7541,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
+      <c r="I105" s="78"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -7597,8 +7590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7629,43 +7622,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="A1" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7710,126 +7703,3539 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="89" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="88" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="88"/>
+      <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="52">
+        <v>868926033991644</v>
+      </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="G6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="57">
+        <v>866192037824677</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="28"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="52">
+        <v>866050031811670</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="28"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="52">
+        <v>868926033923811</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="52">
+        <v>864811036929680</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="56"/>
+      <c r="M10" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="52">
+        <v>869627031844913</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="50">
+        <v>44139</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="52">
+        <v>868926033948867</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="52">
+        <v>864811036929656</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="52">
+        <v>864811037285280</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="I14" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="11">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="11">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="11">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="11">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="11">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="11">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="11">
+        <f>SUM(W26:W36)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="11">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="11">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>45</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="11">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>49</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="11">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="11">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>51</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="84">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>52</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>53</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>54</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="39"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="39"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>56</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="11">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>57</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="48"/>
+      <c r="V62" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="11">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>58</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="39"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>59</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="39"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>60</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="39"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>61</v>
+      </c>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="48"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="39"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>62</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="38">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="39"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>63</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="39"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>64</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="39"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>65</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="39"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>66</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="39"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>67</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="39"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>68</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="39"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>69</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="48"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="39"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>70</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="39"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>71</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="48"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="39"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>72</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="39"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>73</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="39"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>74</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="48"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="39"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>75</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="48"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="39"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>76</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="39"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>77</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="39"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>78</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="39"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>79</v>
+      </c>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="39"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>80</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>81</v>
+      </c>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="39"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>82</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="39"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>83</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="39"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>84</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="48"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>85</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="39"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>86</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="39"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>87</v>
+      </c>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="39"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>88</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="39"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>89</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="39"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>90</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="39"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>91</v>
+      </c>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="39"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>92</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="39"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>93</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="48"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="39"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>94</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="48"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="39"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>95</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="39"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>96</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="48"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="39"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>97</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="48"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="39"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>98</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="48"/>
+      <c r="V103" s="38"/>
+      <c r="W103" s="39"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>99</v>
+      </c>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="39"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>100</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="47"/>
+      <c r="U105" s="49"/>
+      <c r="V105" s="40"/>
+      <c r="W105" s="41"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S105"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="22"/>
+    <col min="22" max="22" width="30.5703125" style="22" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="94"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="88"/>
+      <c r="M4" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="88"/>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+    </row>
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="50">
+        <v>44149</v>
+      </c>
+      <c r="C6" s="50">
+        <v>44158</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="52">
+        <v>860906041136075</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="L6" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="81" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7840,27 +11246,57 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52">
+        <v>868183033826558</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
+      <c r="I7" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7869,27 +11305,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="57">
+        <v>868183033807509</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>112</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7898,27 +11362,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="52">
+        <v>868926033991644</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="G9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>101</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7927,27 +11419,57 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="57">
+        <v>866192037824677</v>
+      </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="M10" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7956,27 +11478,57 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="66" t="s">
+        <v>119</v>
+      </c>
       <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="52">
+        <v>866050031811670</v>
+      </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
+      <c r="G11" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7985,27 +11537,55 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="52">
+        <v>868926033923811</v>
+      </c>
       <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="G12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8023,7 +11603,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="66"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="53"/>
       <c r="K13" s="56"/>
       <c r="L13" s="53"/>
@@ -8036,7 +11616,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8052,7 +11632,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="53"/>
       <c r="K14" s="1"/>
       <c r="L14" s="53"/>
@@ -8065,7 +11645,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8081,7 +11661,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="66"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="53"/>
       <c r="K15" s="56"/>
       <c r="L15" s="53"/>
@@ -8094,7 +11674,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8110,7 +11690,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="66"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="53"/>
       <c r="K16" s="1"/>
       <c r="L16" s="53"/>
@@ -8123,7 +11703,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8139,7 +11719,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="66"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="53"/>
       <c r="K17" s="56"/>
       <c r="L17" s="53"/>
@@ -8166,7 +11746,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="66"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="53"/>
       <c r="K18" s="56"/>
       <c r="L18" s="53"/>
@@ -8193,7 +11773,7 @@
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="66"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="53"/>
       <c r="K19" s="1"/>
       <c r="L19" s="53"/>
@@ -8224,7 +11804,7 @@
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="66"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="53"/>
       <c r="K20" s="54"/>
       <c r="L20" s="1"/>
@@ -8242,7 +11822,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8256,7 +11836,7 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="67"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="1"/>
       <c r="K21" s="53"/>
       <c r="L21" s="1"/>
@@ -8274,7 +11854,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8288,7 +11868,7 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="67"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -8306,7 +11886,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8320,7 +11900,7 @@
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -8347,7 +11927,7 @@
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
-      <c r="I24" s="66"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -8434,7 +12014,7 @@
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
-      <c r="F27" s="65"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
       <c r="I27" s="53"/>
@@ -8455,7 +12035,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8469,7 +12049,7 @@
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="66"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -8583,7 +12163,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8711,7 +12291,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8775,7 +12355,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9010,7 +12590,7 @@
       </c>
       <c r="W45" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9042,7 +12622,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9106,7 +12686,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9357,10 +12937,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9389,8 +12969,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9416,8 +12996,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
